--- a/study03/report/learning-outcomes/effective-participants/ParametricAnalysis.xlsx
+++ b/study03/report/learning-outcomes/effective-participants/ParametricAnalysis.xlsx
@@ -25,7 +25,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="130">
   <si>
-    <t>Summary of ANOVA for Gains in Skills/Knowledge - Recursion</t>
+    <t>Summary of ANOVA for Gains in Skill/Knowledge - Recursion</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -76,13 +76,13 @@
     <t>Residuals</t>
   </si>
   <si>
-    <t>Fail and warnings in Anova for Gains in Skills/Knowledge - Recursion</t>
+    <t>Fail and warnings in Anova for Gains in Skill/Knowledge - Recursion</t>
   </si>
   <si>
-    <t>ANOVA assumptions for Gains in Skills/Knowledge - Recursion</t>
+    <t>ANOVA assumptions for Gains in Skill/Knowledge - Recursion</t>
   </si>
   <si>
-    <t>Shapiro-Wilk normality test for Gains in Skills/Knowledge - Recursion</t>
+    <t>Shapiro-Wilk normality test for Gains in Skill/Knowledge - Recursion</t>
   </si>
   <si>
     <t>W</t>
@@ -94,13 +94,13 @@
     <t>Plots for normality test</t>
   </si>
   <si>
-    <t>Levene's Test for Homogeneity of Variance in Gains in Skills/Knowledge - Recursion</t>
+    <t>Levene's Test for Homogeneity of Variance in Gains in Skill/Knowledge - Recursion</t>
   </si>
   <si>
     <t>Plots for homogeneity of variance</t>
   </si>
   <si>
-    <t>Minimum Sample Size Test for Gains in Skills/Knowledge - Recursion</t>
+    <t>Minimum Sample Size Test for Gains in Skill/Knowledge - Recursion</t>
   </si>
   <si>
     <t>Freq</t>
@@ -118,7 +118,7 @@
     <t>Master</t>
   </si>
   <si>
-    <t>Errors and Warnings in Sample Size Test for ANOVA in Gains in Skills/Knowledge - Recursion</t>
+    <t>Errors and Warnings in Sample Size Test for ANOVA in Gains in Skill/Knowledge - Recursion</t>
   </si>
   <si>
     <t>code</t>
@@ -150,7 +150,7 @@
 ... (2) Harwell, M.R., E.N. Rubinstein, W.S. Hayes, and C.C. Olds. 1992. Summarizing Monte Carlo results in methodological research: the one- and two-factor fixed effects ANOVA cases. J. Educ. Stat. 17: 315-339.</t>
   </si>
   <si>
-    <t>Post-hoc Tukey Honestly Significant Difference (HSD) Test for Gains in Skills/Knowledge - Recursion</t>
+    <t>Post-hoc Tukey Honestly Significant Difference (HSD) Test for Gains in Skill/Knowledge - Recursion</t>
   </si>
   <si>
     <t>Comparisons of means for Type</t>
@@ -198,7 +198,7 @@
     <t>ont-gamified:Apprentice-w/o-gamified:Apprentice</t>
   </si>
   <si>
-    <t>Contrast Matrices for Gains in Skills/Knowledge - Recursion - Type</t>
+    <t>Contrast Matrices for Gains in Skill/Knowledge - Recursion - Type</t>
   </si>
   <si>
     <t>contrast</t>
@@ -219,7 +219,7 @@
     <t>ont-gamified - w/o-gamified</t>
   </si>
   <si>
-    <t>Contrast Matrices for Gains in Skills/Knowledge - Recursion - Type:CLRole</t>
+    <t>Contrast Matrices for Gains in Skill/Knowledge - Recursion - Type:CLRole</t>
   </si>
   <si>
     <t>Least Squares Means and Confidence Intervals for Type</t>
@@ -255,7 +255,7 @@
     <t>Plots</t>
   </si>
   <si>
-    <t>Summary of Student's t-Test for Gains in Skills/Knowledge - Recursion</t>
+    <t>Summary of Student's t-Test for Gains in Skill/Knowledge - Recursion</t>
   </si>
   <si>
     <t>Student's t-Test results for Type - Alternative hypothesis: greater</t>
@@ -300,7 +300,7 @@
     <t>Student's t-Test results for Type:CLRole - Alternative hypothesis: greater</t>
   </si>
   <si>
-    <t>Student's t-Test for Gains in Skills/Knowledge - Recursion in Type between ont-gamified:w/o-gamified</t>
+    <t>Student's t-Test for Gains in Skill/Knowledge - Recursion in Type between ont-gamified:w/o-gamified</t>
   </si>
   <si>
     <t>Student's t-Test results</t>
@@ -399,25 +399,25 @@
     <t>Yee Achiever</t>
   </si>
   <si>
-    <t>Student's t-Test for Gains in Skills/Knowledge - Recursion in Type:CLRole between ont-gamified.Apprentice:ont-gamified.Master</t>
+    <t>Student's t-Test for Gains in Skill/Knowledge - Recursion in Type:CLRole between ont-gamified.Apprentice:ont-gamified.Master</t>
   </si>
   <si>
-    <t>Student's t-Test for Gains in Skills/Knowledge - Recursion in Type:CLRole between ont-gamified.Apprentice:w/o-gamified.Apprentice</t>
+    <t>Student's t-Test for Gains in Skill/Knowledge - Recursion in Type:CLRole between ont-gamified.Apprentice:w/o-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Student's t-Test for Gains in Skills/Knowledge - Recursion in Type:CLRole between ont-gamified.Apprentice:w/o-gamified.Master</t>
+    <t>Student's t-Test for Gains in Skill/Knowledge - Recursion in Type:CLRole between ont-gamified.Apprentice:w/o-gamified.Master</t>
   </si>
   <si>
-    <t>Student's t-Test for Gains in Skills/Knowledge - Recursion in Type:CLRole between ont-gamified.Master:w/o-gamified.Apprentice</t>
+    <t>Student's t-Test for Gains in Skill/Knowledge - Recursion in Type:CLRole between ont-gamified.Master:w/o-gamified.Apprentice</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>Student's t-Test for Gains in Skills/Knowledge - Recursion in Type:CLRole between ont-gamified.Master:w/o-gamified.Master</t>
+    <t>Student's t-Test for Gains in Skill/Knowledge - Recursion in Type:CLRole between ont-gamified.Master:w/o-gamified.Master</t>
   </si>
   <si>
-    <t>Student's t-Test for Gains in Skills/Knowledge - Recursion in Type:CLRole between w/o-gamified.Apprentice:w/o-gamified.Master</t>
+    <t>Student's t-Test for Gains in Skill/Knowledge - Recursion in Type:CLRole between w/o-gamified.Apprentice:w/o-gamified.Master</t>
   </si>
 </sst>
 </file>
